--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1887938.558830906</v>
+        <v>1980251.122959454</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760743</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6286619.609267066</v>
+        <v>6695941.9757545</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>120.3531952773279</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>193.723760465999</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -820,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>117.0382651951628</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>414.8887015517798</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -947,16 +949,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>135.0277481414902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>11.94864015846644</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>367.8886700435809</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>230.7788055297378</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>136.7935461220412</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>38.90528114630859</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1421,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>21.77073247754094</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.4903920320435</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.3884291780969</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182444</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>134.9361836492272</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>161.8970328977319</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2093,13 +2095,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>103.8603782851908</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.29398636314822</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>117.1585426144803</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>50.81828836887217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>221.6885862577645</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>7.218704810436675</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>140.0655176958004</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.378995526348881</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8834068500168</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>168.1683501010644</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="X43" t="n">
-        <v>226.5878864637942</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3982,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>62.77890968020819</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4028,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>115.3288057180331</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>60.29055953944252</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>541.8526725321886</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>519.9161367204503</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>498.8323589502546</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4361,19 +4363,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.875776931517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>830.4732064905791</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>658.500643369495</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>495.1838704962657</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E4" t="n">
-        <v>328.9756646491193</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924753</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1764.398243894585</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1489.545840067098</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.981943512903</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.639175202645</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.9297397222204</v>
+        <v>526.1489102928739</v>
       </c>
       <c r="C5" t="n">
         <v>107.0694137759246</v>
@@ -4565,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4595,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1763.226722590766</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.226722590766</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>955.1153740588601</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y5" t="n">
-        <v>549.7781040137504</v>
+        <v>945.997274584404</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>801.519148240033</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466326</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1492.880289089844</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1218.027885262357</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.027885262357</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.6851169520987</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1287.678729207028</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>860.7779992203286</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>841.5257824457329</v>
       </c>
       <c r="E8" t="n">
         <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4811,16 +4813,16 @@
         <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>786.7690422004985</v>
+        <v>689.792035382553</v>
       </c>
       <c r="C10" t="n">
-        <v>786.7690422004985</v>
+        <v>517.8194722614689</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>354.5026993882396</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2185.612988678226</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1905.42854017853</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1623.717072786558</v>
       </c>
       <c r="W10" t="n">
-        <v>1445.841675777017</v>
+        <v>1348.864668959071</v>
       </c>
       <c r="X10" t="n">
-        <v>1203.277779222822</v>
+        <v>1106.300772404877</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.9350109125642</v>
+        <v>879.9580040946187</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2041.283333911051</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2041.283333911051</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.990713096051</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1192.013773243908</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>298.2923672553231</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679215</v>
+        <v>1013.800675230822</v>
       </c>
       <c r="L11" t="n">
-        <v>865.123762894595</v>
+        <v>1013.800675230822</v>
       </c>
       <c r="M11" t="n">
-        <v>1633.224300044002</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.665912441805</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839607</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3107.749591846545</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2849.394682442957</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2849.394682442957</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>2453.003332743303</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>2041.283333911051</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2041.283333911051</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M12" t="n">
-        <v>865.123762894595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743.414955385085</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461991</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839607</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.752615436019</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2618.263200562269</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.871850862616</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.871850862616</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1816.534580817507</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,25 +5518,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X19" t="n">
-        <v>1548.125779643583</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y19" t="n">
-        <v>1321.783011333325</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5756,22 +5758,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5835,7 +5837,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M21" t="n">
         <v>821.6753975134684</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.529878172021</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.529878172021</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>1587.529878172021</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5993,16 +5995,16 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6066,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>207.2121864211728</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6229,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
         <v>2585.460682495986</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4143.246847793825</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>4143.246847793825</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>5032.728125805296</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.6022263052665</v>
+        <v>1013.933126818039</v>
       </c>
       <c r="C28" t="n">
-        <v>606.6296631841825</v>
+        <v>841.9605636969554</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>678.6437908237261</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>512.4355849765797</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>340.5738107511401</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>174.3168410453722</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>174.3168410453722</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.580693338092</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1994.238731101243</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.527263709272</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.674859881785</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X28" t="n">
-        <v>1195.11096332759</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.7681950173321</v>
+        <v>1204.099095530105</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6469,19 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>655.1318596602905</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C31" t="n">
-        <v>483.1592965392065</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D31" t="n">
-        <v>319.8425236659772</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E31" t="n">
-        <v>153.6343178188307</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V31" t="n">
-        <v>1589.056897064296</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W31" t="n">
-        <v>1314.204493236809</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.640596682614</v>
+        <v>4334.643934165136</v>
       </c>
       <c r="Y31" t="n">
-        <v>845.2978283723562</v>
+        <v>4108.301165854878</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.458684077479</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="C34" t="n">
-        <v>857.4861209563953</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F34" t="n">
         <v>512.1245198631661</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1727.761024659143</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.81982492729</v>
+        <v>1446.049557267172</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.967421099803</v>
+        <v>1171.197153439685</v>
       </c>
       <c r="X34" t="n">
-        <v>1445.967421099803</v>
+        <v>928.6332568854898</v>
       </c>
       <c r="Y34" t="n">
-        <v>1219.624652789545</v>
+        <v>702.2904885752318</v>
       </c>
     </row>
     <row r="35">
@@ -6941,16 +6943,16 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7020,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.9291292906429</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="C37" t="n">
-        <v>789.9291292906429</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9291292906429</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y37" t="n">
-        <v>789.9291292906429</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
         <v>4659.050190787244</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F40" t="n">
         <v>512.1245198631661</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>659.6733526114974</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>659.6733526114974</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>659.6733526114974</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>1580.632070870094</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2381.073683267897</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3089.352962425824</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>2292.970335480043</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>1896.57898578039</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>1484.858986948137</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>1079.521716903027</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>655.1670770651317</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>655.1670770651317</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1455.608689462935</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U43" t="n">
-        <v>2074.960130429055</v>
+        <v>4263.149786882017</v>
       </c>
       <c r="V43" t="n">
-        <v>1793.248663037084</v>
+        <v>3981.438319490046</v>
       </c>
       <c r="W43" t="n">
-        <v>1793.248663037084</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.372010043353</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1682.327543311627</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>1255.426813324927</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1255.426813324927</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>865.123762894595</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839607</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2871.38532130916</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>2513.895906435409</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.895906435409</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>2102.175907603157</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2102.175907603157</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L45" t="n">
-        <v>526.7633817320166</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="M45" t="n">
-        <v>526.7633817320166</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="N45" t="n">
-        <v>526.7633817320166</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O45" t="n">
-        <v>1327.204994129819</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>2198.056564597094</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="V46" t="n">
-        <v>1916.345097205123</v>
+        <v>1873.618268055663</v>
       </c>
       <c r="W46" t="n">
-        <v>1641.492693377636</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.928796823441</v>
+        <v>1356.201967673981</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8055,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,22 +8066,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>380.3837697700394</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8234,7 +8236,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
@@ -8301,16 +8303,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>97.19681650027508</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8459,10 +8461,10 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,7 +8473,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3350601123618</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8547,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>229.6375578455189</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>813.2903913331761</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>231.2464684003135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>814.1711708663672</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>473.4530921997167</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089942</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9164,10 +9166,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L17" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9404,7 +9406,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>348.6939416158729</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9485,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>225.6703421419597</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,13 +9877,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>105.0107851302135</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10115,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>394.7585026918616</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,10 +10357,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10589,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>611.7910214708227</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.59763170750723</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,16 +11141,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>443.3239288341148</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>800.4391083560556</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>214.8218967704249</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>645.7592131966823</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.9455827682722</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>73.42412869296948</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.2614514705178</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>92.48232787976171</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>66.28277819799433</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>27.47689621397856</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>160.2240614002185</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>119.324868114313</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,22 +24888,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>18.44967133088844</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>154.4649003340603</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>137.3170863188984</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>183.8853134985961</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25318,10 +25320,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>59.66271693865821</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.8853134985969</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>253.5488203525566</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>198.0291291640731</v>
       </c>
       <c r="X43" t="n">
-        <v>13.55037112485869</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>358.9382607734128</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>163.5655470000182</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.7887810877129</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427181.5748028145</v>
+        <v>567271.7251872622</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427181.5748028148</v>
+        <v>567271.7251872622</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576081.1632158834</v>
+        <v>576081.1632158835</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576081.1632158834</v>
+        <v>576081.1632158833</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576081.1632158834</v>
+        <v>576081.1632158835</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576081.1632158835</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576081.1632158835</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576081.1632158833</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427181.5748028147</v>
+        <v>567271.7251872622</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427181.5748028146</v>
+        <v>567271.7251872622</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
         <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019905</v>
+        <v>401240.9763519659</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746493</v>
       </c>
       <c r="H2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
         <v>407472.0422746491</v>
@@ -26344,16 +26346,16 @@
         <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.0422746493</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="N2" t="n">
         <v>407472.0422746492</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019906</v>
+        <v>401240.9763519655</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519659</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215406</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215406</v>
+        <v>786.9066424250632</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215406</v>
+        <v>786.9066424250631</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28912.20052363497</v>
+        <v>28912.20052363485</v>
       </c>
       <c r="C6" t="n">
         <v>215316.9339383722</v>
       </c>
       <c r="D6" t="n">
-        <v>215316.9339383721</v>
+        <v>215316.9339383722</v>
       </c>
       <c r="E6" t="n">
-        <v>177085.7015376448</v>
+        <v>116963.3039849474</v>
       </c>
       <c r="F6" t="n">
-        <v>252416.6526911072</v>
+        <v>324395.5916015082</v>
       </c>
       <c r="G6" t="n">
-        <v>200031.5200147355</v>
+        <v>321296.2977427948</v>
       </c>
       <c r="H6" t="n">
         <v>328921.9198262761</v>
       </c>
       <c r="I6" t="n">
-        <v>328921.9198262758</v>
+        <v>328921.9198262761</v>
       </c>
       <c r="J6" t="n">
-        <v>183388.2498914597</v>
+        <v>183388.2498914595</v>
       </c>
       <c r="K6" t="n">
         <v>328921.919826276</v>
       </c>
       <c r="L6" t="n">
-        <v>328921.919826276</v>
+        <v>328921.9198262761</v>
       </c>
       <c r="M6" t="n">
-        <v>266047.9828609023</v>
+        <v>155791.4286206366</v>
       </c>
       <c r="N6" t="n">
         <v>328921.9198262761</v>
       </c>
       <c r="O6" t="n">
-        <v>252416.652691107</v>
+        <v>324395.591601508</v>
       </c>
       <c r="P6" t="n">
-        <v>252416.6526911071</v>
+        <v>324395.5916015083</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>198.7036757366576</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>53.10489128802236</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>7.743021135053027</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>120.7436121680616</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>158.3041973314067</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>53.82850041004008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>161.6486306729188</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.89005902245577</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>202.0006731500504</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
@@ -35021,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,14 +35251,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>162.8199733981322</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>200.2175983599324</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>775.8591284337443</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>775.8591284337443</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>209.903440186772</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L17" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>83.23994392538482</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>357.4788798574156</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,10 +37077,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>574.2156596605913</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>27.47295710290918</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>421.9809006205731</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>763.0481490000315</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>192.3068100561953</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1980251.122959454</v>
+        <v>1979533.132844595</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760743</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6695941.9757545</v>
+        <v>6695941.975754499</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>120.3531952773279</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.0175870594775</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429482</v>
+        <v>25.45817320599582</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -898,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>414.8887015517798</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>71.21229122917212</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>151.6934851522974</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>217.0772816663271</v>
       </c>
       <c r="E8" t="n">
-        <v>367.8886700435809</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>38.90528114630859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>280.4903920320435</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>147.1260828796079</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>110.7442840088803</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1824,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>176.2251389311546</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.7047943182444</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>211.0998258167045</v>
       </c>
       <c r="V19" t="n">
-        <v>161.8970328977319</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49.87597792716544</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>276.5676752477886</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>152.0898487279629</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8603782851908</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>155.9774219453443</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.29398636314822</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>106.2783140457224</v>
       </c>
       <c r="X31" t="n">
-        <v>221.6885862577645</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>140.0655176958004</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.378995526348881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3483,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>205.2120578258329</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.378995526348093</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3711,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>156.4428031323016</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>15.31997131651354</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>74.07475062513896</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>182.3472316165828</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.5888679774606</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>115.3288057180331</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934842</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C2" t="n">
-        <v>561.1048893067843</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D2" t="n">
-        <v>541.8526725321886</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E2" t="n">
-        <v>519.9161367204503</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>498.8323589502546</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4330,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630124</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585014</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N3" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782816</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>526.1489102928739</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E5" t="n">
         <v>65.88066118959054</v>
@@ -4570,16 +4570,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
         <v>1100.603903091853</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.054543461766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1351.334544629514</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>945.997274584404</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1417.526784297715</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>1771.166545545054</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>837.302184545315</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>673.9854116720857</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>507.7772058249392</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.678729207028</v>
+        <v>1874.83396633247</v>
       </c>
       <c r="C8" t="n">
-        <v>860.7779992203286</v>
+        <v>1851.973640386174</v>
       </c>
       <c r="D8" t="n">
-        <v>841.5257824457329</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,16 +4810,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1708.823959503264</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.527093498559</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.792035382553</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>517.8194722614689</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>354.5026993882396</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>188.2944935410931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2185.612988678226</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1905.42854017853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1623.717072786558</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.864668959071</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1106.300772404877</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9580040946187</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.385507478249</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.408567626107</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>802.2843858155067</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9453234049553</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>298.2923672553231</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1013.800675230822</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1013.800675230822</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
         <v>5003.847243949504</v>
@@ -5077,16 +5077,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>1192.566858421002</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.566858421002</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.566858421002</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.566858421002</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>1002.345293611748</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>830.372730490664</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="E13" t="n">
         <v>681.7605255617672</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292118</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292118</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1435.075158878009</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1192.511262323814</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>1192.511262323814</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,22 +5308,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>853.7330886828512</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="E16" t="n">
         <v>681.7605255617672</v>
@@ -5472,16 +5472,16 @@
         <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.792515224631</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1539.792515224631</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>1539.792515224631</v>
+        <v>1080.075856993109</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>853.7330886828512</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784958</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1656.009198274391</v>
       </c>
       <c r="V19" t="n">
-        <v>1875.844036582501</v>
+        <v>1374.29773088242</v>
       </c>
       <c r="W19" t="n">
-        <v>1600.991632755014</v>
+        <v>1099.445327054933</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.427736200819</v>
+        <v>856.8814305007381</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890562</v>
+        <v>630.5386621904802</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.5168264363576</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C22" t="n">
-        <v>324.5442633152736</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D22" t="n">
-        <v>324.5442633152736</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E22" t="n">
-        <v>324.5442633152736</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>152.682489089834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>152.682489089834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840363</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012876</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0255634586812</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y22" t="n">
-        <v>686.6827951484232</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C25" t="n">
-        <v>373.4203922683193</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D25" t="n">
-        <v>373.4203922683193</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>207.2121864211728</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6192,7 +6192,7 @@
         <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.933126818039</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C28" t="n">
-        <v>841.9605636969554</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="D28" t="n">
-        <v>678.6437908237261</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="E28" t="n">
-        <v>512.4355849765797</v>
+        <v>431.7174390912119</v>
       </c>
       <c r="F28" t="n">
-        <v>340.5738107511401</v>
+        <v>259.8556648657723</v>
       </c>
       <c r="G28" t="n">
-        <v>174.3168410453722</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>174.3168410453722</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.441863840363</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.441863840363</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.099095530105</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3918.135197142812</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C31" t="n">
-        <v>3746.162634021728</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D31" t="n">
-        <v>3582.845861148498</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E31" t="n">
-        <v>3416.637655301352</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F31" t="n">
-        <v>3244.775881075912</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4833.424202899456</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4558.571799071969</v>
+        <v>1152.954983990081</v>
       </c>
       <c r="X31" t="n">
-        <v>4334.643934165136</v>
+        <v>910.3910874358867</v>
       </c>
       <c r="Y31" t="n">
-        <v>4108.301165854878</v>
+        <v>684.0483191256287</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,16 +6776,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>512.1245198631661</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E34" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1727.761024659143</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1446.049557267172</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1171.197153439685</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>928.6332568854898</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.2904885752318</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3344.544449335636</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="C37" t="n">
-        <v>3344.544449335636</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D37" t="n">
-        <v>3344.544449335636</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E37" t="n">
-        <v>3344.544449335636</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1059.880973029201</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>1059.880973029201</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
         <v>4659.050190787244</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686964</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.1245198631661</v>
+        <v>855.9100933510683</v>
       </c>
       <c r="C40" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="D40" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E40" t="n">
-        <v>512.1245198631661</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7359,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2077.654094039159</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1834.314746265059</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1554.130297765363</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>1046.076062063134</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.385507478249</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.408567626107</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155067</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7414,49 +7414,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>550.4987787389118</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>550.4987787389118</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>387.1820058656825</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>387.1820058656825</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>215.320231640243</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>4543.334235381712</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>4263.149786882017</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>3981.438319490046</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>3906.615339060613</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>3906.615339060613</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>740.6647474509774</v>
       </c>
     </row>
     <row r="44">
@@ -7663,22 +7663,22 @@
         <v>3084.064817777362</v>
       </c>
       <c r="O44" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
         <v>4494.365256022244</v>
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1208.573242241487</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.573242241487</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N45" t="n">
-        <v>1826.745265374797</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O45" t="n">
-        <v>1826.745265374797</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
         <v>1826.745265374797</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>939.6932306516574</v>
+        <v>614.5339715155808</v>
       </c>
       <c r="C46" t="n">
-        <v>767.7206675305733</v>
+        <v>614.5339715155808</v>
       </c>
       <c r="D46" t="n">
-        <v>604.403894657344</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="E46" t="n">
-        <v>438.1956888101976</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F46" t="n">
-        <v>266.333914584758</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0769448789901</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>1990.112011205191</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U46" t="n">
-        <v>1990.112011205191</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V46" t="n">
-        <v>1873.618268055663</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W46" t="n">
-        <v>1598.765864228176</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X46" t="n">
-        <v>1356.201967673981</v>
+        <v>1031.042708537904</v>
       </c>
       <c r="Y46" t="n">
-        <v>1129.859199363723</v>
+        <v>804.6999402276465</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>451.134864077236</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>380.3837697700394</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8230,7 +8230,7 @@
         <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8306,7 +8306,7 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>378.5549082613589</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8458,19 +8458,19 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>453.8808346480169</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.6375578455189</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8947,10 +8947,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.4530921997167</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>106.0949474728485</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>949.8342934347922</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>348.6939416158729</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>775.4951334534195</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>883.9207714806259</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10123,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>394.7585026918616</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,13 +10360,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10436,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10670,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10834,13 +10834,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858341</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11311,7 +11311,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>800.4391083560556</v>
+        <v>681.6953357480734</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>645.7592131966823</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>73.42412869296948</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14.55752226488912</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>63.91311865749833</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>66.28277819799422</v>
       </c>
       <c r="V19" t="n">
-        <v>116.9973198203195</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>92.48232787976171</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.32667747026278</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>9.593756416534092</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>66.28277819799433</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.616978063365906</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>27.47689621397856</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>165.8255657434897</v>
       </c>
       <c r="X31" t="n">
-        <v>18.44967133088844</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3170863188984</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.8853134985961</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>34.92619976281998</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.8853134985969</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>11.99089387375486</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>149.2744286921966</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>198.0291291640731</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>73.42412869296905</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.09473716703637</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>163.5655470000182</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567271.7251872622</v>
+        <v>567271.7251872621</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576081.1632158833</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576081.1632158835</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576081.1632158835</v>
+        <v>576081.1632158834</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576081.1632158834</v>
+        <v>576081.1632158833</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576081.1632158834</v>
+        <v>576081.1632158835</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080933</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.934308093</v>
       </c>
       <c r="E2" t="n">
-        <v>401240.9763519659</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="F2" t="n">
         <v>401240.9763519657</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746493</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
         <v>407472.0422746491</v>
@@ -26337,25 +26337,25 @@
         <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746488</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="L2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>401240.9763519655</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>401240.9763519659</v>
+        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26426,34 +26426,34 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="H4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="J4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="L4" t="n">
         <v>800.0602599433672</v>
-      </c>
-      <c r="H4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="I4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="J4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="K4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>786.9066424250631</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28912.20052363485</v>
+        <v>28912.20052363491</v>
       </c>
       <c r="C6" t="n">
         <v>215316.9339383722</v>
       </c>
       <c r="D6" t="n">
-        <v>215316.9339383722</v>
+        <v>215316.933938372</v>
       </c>
       <c r="E6" t="n">
-        <v>116963.3039849474</v>
+        <v>116890.7868885468</v>
       </c>
       <c r="F6" t="n">
-        <v>324395.5916015082</v>
+        <v>324323.0745051078</v>
       </c>
       <c r="G6" t="n">
-        <v>321296.2977427948</v>
+        <v>321245.2670806104</v>
       </c>
       <c r="H6" t="n">
-        <v>328921.9198262761</v>
+        <v>328870.8891640917</v>
       </c>
       <c r="I6" t="n">
-        <v>328921.9198262761</v>
+        <v>328870.8891640917</v>
       </c>
       <c r="J6" t="n">
-        <v>183388.2498914595</v>
+        <v>183337.219229275</v>
       </c>
       <c r="K6" t="n">
-        <v>328921.919826276</v>
+        <v>328870.8891640917</v>
       </c>
       <c r="L6" t="n">
-        <v>328921.9198262761</v>
+        <v>328870.8891640917</v>
       </c>
       <c r="M6" t="n">
-        <v>155791.4286206366</v>
+        <v>155740.3979584522</v>
       </c>
       <c r="N6" t="n">
-        <v>328921.9198262761</v>
+        <v>328870.8891640918</v>
       </c>
       <c r="O6" t="n">
-        <v>324395.591601508</v>
+        <v>324323.0745051078</v>
       </c>
       <c r="P6" t="n">
-        <v>324395.5916015083</v>
+        <v>324323.0745051078</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>279.9424765091179</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>155.8969336655355</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402022</v>
+        <v>136.2254319385012</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27554,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.743021135053027</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>18.44967133088775</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>201.9824129405226</v>
       </c>
       <c r="E8" t="n">
-        <v>53.82850041004008</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>202.0006731500504</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>415.010189472638</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>357.2118800478172</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>510.5455990486534</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35026,7 +35026,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>357.2118800478172</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35178,19 +35178,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>432.5378064344752</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>200.2175983599324</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35667,10 +35667,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>437.3284175951186</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>928.4912652212506</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>310.3818991832499</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>846.4895085811942</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36843,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>357.4788798574156</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,13 +37080,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37554,13 +37554,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>706.646375151388</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>763.0481490000315</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>624.4161849831406</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
